--- a/TradingSimula_18-2022/TF-System#4_1R.xlsx
+++ b/TradingSimula_18-2022/TF-System#4_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$148</f>
+              <f>'EquityCurve'!$A$3:$A$174</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$148</f>
+              <f>'EquityCurve'!$B$2:$B$174</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,7 +594,7 @@
         <v>40207</v>
       </c>
       <c r="B3" t="n">
-        <v>-8756.485008000009</v>
+        <v>50957.9244566532</v>
       </c>
     </row>
     <row r="4">
@@ -602,7 +602,7 @@
         <v>40235</v>
       </c>
       <c r="B4" t="n">
-        <v>-19859.82503173005</v>
+        <v>19941.55894593537</v>
       </c>
     </row>
     <row r="5">
@@ -610,7 +610,7 @@
         <v>40268</v>
       </c>
       <c r="B5" t="n">
-        <v>-20724.82011879518</v>
+        <v>5244.452389800432</v>
       </c>
     </row>
     <row r="6">
@@ -618,7 +618,7 @@
         <v>40298</v>
       </c>
       <c r="B6" t="n">
-        <v>-34676.97196032997</v>
+        <v>-18153.11875337</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>40326</v>
       </c>
       <c r="B7" t="n">
-        <v>-29855.99935999514</v>
+        <v>-36920.1099727234</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>40359</v>
       </c>
       <c r="B8" t="n">
-        <v>-31823.06117737982</v>
+        <v>-42238.02168404504</v>
       </c>
     </row>
     <row r="9">
@@ -642,7 +642,7 @@
         <v>40389</v>
       </c>
       <c r="B9" t="n">
-        <v>-36427.3509564102</v>
+        <v>-49508.17474882429</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         <v>40421</v>
       </c>
       <c r="B10" t="n">
-        <v>-32096.47880212771</v>
+        <v>-38575.15445362211</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         <v>40451</v>
       </c>
       <c r="B11" t="n">
-        <v>-33554.21291494808</v>
+        <v>-11250.38843450259</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
         <v>40480</v>
       </c>
       <c r="B12" t="n">
-        <v>-36101.01451494806</v>
+        <v>13904.15872417822</v>
       </c>
     </row>
     <row r="13">
@@ -674,7 +674,7 @@
         <v>40512</v>
       </c>
       <c r="B13" t="n">
-        <v>-27749.75650853937</v>
+        <v>18103.50045370908</v>
       </c>
     </row>
     <row r="14">
@@ -682,7 +682,7 @@
         <v>40543</v>
       </c>
       <c r="B14" t="n">
-        <v>-36720.73932803003</v>
+        <v>38008.23581409674</v>
       </c>
     </row>
     <row r="15">
@@ -690,7 +690,7 @@
         <v>40574</v>
       </c>
       <c r="B15" t="n">
-        <v>-43930.16215809793</v>
+        <v>-12558.05008761027</v>
       </c>
     </row>
     <row r="16">
@@ -698,7 +698,7 @@
         <v>40602</v>
       </c>
       <c r="B16" t="n">
-        <v>-44000.0625815416</v>
+        <v>-12931.31493628013</v>
       </c>
     </row>
     <row r="17">
@@ -706,7 +706,7 @@
         <v>40633</v>
       </c>
       <c r="B17" t="n">
-        <v>-44123.47705900581</v>
+        <v>-69177.43048962795</v>
       </c>
     </row>
     <row r="18">
@@ -714,7 +714,7 @@
         <v>40662</v>
       </c>
       <c r="B18" t="n">
-        <v>-34464.10705900572</v>
+        <v>-3229.342021645954</v>
       </c>
     </row>
     <row r="19">
@@ -722,7 +722,7 @@
         <v>40694</v>
       </c>
       <c r="B19" t="n">
-        <v>-31263.06543962643</v>
+        <v>62388.0050766378</v>
       </c>
     </row>
     <row r="20">
@@ -730,7 +730,7 @@
         <v>40724</v>
       </c>
       <c r="B20" t="n">
-        <v>-29650.30442483442</v>
+        <v>36134.25707469812</v>
       </c>
     </row>
     <row r="21">
@@ -738,7 +738,7 @@
         <v>40753</v>
       </c>
       <c r="B21" t="n">
-        <v>-24073.55770371159</v>
+        <v>78295.38496139138</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>40786</v>
       </c>
       <c r="B22" t="n">
-        <v>-36539.6421215544</v>
+        <v>77415.17373539835</v>
       </c>
     </row>
     <row r="23">
@@ -754,7 +754,7 @@
         <v>40816</v>
       </c>
       <c r="B23" t="n">
-        <v>-40255.43880956274</v>
+        <v>157427.3479195804</v>
       </c>
     </row>
     <row r="24">
@@ -762,7 +762,7 @@
         <v>40847</v>
       </c>
       <c r="B24" t="n">
-        <v>-40800.30562959849</v>
+        <v>143341.5828941808</v>
       </c>
     </row>
     <row r="25">
@@ -770,7 +770,7 @@
         <v>40877</v>
       </c>
       <c r="B25" t="n">
-        <v>-39778.33202128473</v>
+        <v>118100.0978298581</v>
       </c>
     </row>
     <row r="26">
@@ -778,7 +778,7 @@
         <v>40907</v>
       </c>
       <c r="B26" t="n">
-        <v>-36644.99958849318</v>
+        <v>121626.263382472</v>
       </c>
     </row>
     <row r="27">
@@ -786,7 +786,7 @@
         <v>40939</v>
       </c>
       <c r="B27" t="n">
-        <v>-36272.32038849319</v>
+        <v>139026.919585032</v>
       </c>
     </row>
     <row r="28">
@@ -794,7 +794,7 @@
         <v>40968</v>
       </c>
       <c r="B28" t="n">
-        <v>-37551.04277087285</v>
+        <v>115464.7844046423</v>
       </c>
     </row>
     <row r="29">
@@ -802,7 +802,7 @@
         <v>40998</v>
       </c>
       <c r="B29" t="n">
-        <v>-43130.9915798733</v>
+        <v>75152.43998536274</v>
       </c>
     </row>
     <row r="30">
@@ -810,7 +810,7 @@
         <v>41029</v>
       </c>
       <c r="B30" t="n">
-        <v>-41290.77865131268</v>
+        <v>55562.80680871361</v>
       </c>
     </row>
     <row r="31">
@@ -818,7 +818,7 @@
         <v>41060</v>
       </c>
       <c r="B31" t="n">
-        <v>-33514.94772498761</v>
+        <v>113603.5261140208</v>
       </c>
     </row>
     <row r="32">
@@ -826,7 +826,7 @@
         <v>41089</v>
       </c>
       <c r="B32" t="n">
-        <v>-37366.31261288105</v>
+        <v>101602.6038843853</v>
       </c>
     </row>
     <row r="33">
@@ -834,7 +834,7 @@
         <v>41121</v>
       </c>
       <c r="B33" t="n">
-        <v>-35016.59261288107</v>
+        <v>67633.30506200336</v>
       </c>
     </row>
     <row r="34">
@@ -842,7 +842,7 @@
         <v>41152</v>
       </c>
       <c r="B34" t="n">
-        <v>-35079.6217648811</v>
+        <v>102869.6224450133</v>
       </c>
     </row>
     <row r="35">
@@ -850,7 +850,7 @@
         <v>41180</v>
       </c>
       <c r="B35" t="n">
-        <v>-31691.89137960092</v>
+        <v>109523.4611486616</v>
       </c>
     </row>
     <row r="36">
@@ -858,7 +858,7 @@
         <v>41213</v>
       </c>
       <c r="B36" t="n">
-        <v>-41940.41212313986</v>
+        <v>76613.35295693368</v>
       </c>
     </row>
     <row r="37">
@@ -866,7 +866,7 @@
         <v>41243</v>
       </c>
       <c r="B37" t="n">
-        <v>-39786.23592785984</v>
+        <v>51706.6640970142</v>
       </c>
     </row>
     <row r="38">
@@ -874,7 +874,7 @@
         <v>41274</v>
       </c>
       <c r="B38" t="n">
-        <v>-33316.36345344535</v>
+        <v>76562.77902321242</v>
       </c>
     </row>
     <row r="39">
@@ -882,7 +882,7 @@
         <v>41305</v>
       </c>
       <c r="B39" t="n">
-        <v>-35747.72525651214</v>
+        <v>46562.48337611493</v>
       </c>
     </row>
     <row r="40">
@@ -890,7 +890,7 @@
         <v>41333</v>
       </c>
       <c r="B40" t="n">
-        <v>-34072.72525651217</v>
+        <v>86910.87060520523</v>
       </c>
     </row>
     <row r="41">
@@ -898,7 +898,7 @@
         <v>41362</v>
       </c>
       <c r="B41" t="n">
-        <v>-36224.0827565122</v>
+        <v>73106.97654476596</v>
       </c>
     </row>
     <row r="42">
@@ -906,7 +906,7 @@
         <v>41394</v>
       </c>
       <c r="B42" t="n">
-        <v>-38667.15812013915</v>
+        <v>92167.23261238931</v>
       </c>
     </row>
     <row r="43">
@@ -914,7 +914,7 @@
         <v>41425</v>
       </c>
       <c r="B43" t="n">
-        <v>-39269.58636585461</v>
+        <v>82715.04101069461</v>
       </c>
     </row>
     <row r="44">
@@ -922,7 +922,7 @@
         <v>41453</v>
       </c>
       <c r="B44" t="n">
-        <v>-24000.67414969181</v>
+        <v>89465.25033246793</v>
       </c>
     </row>
     <row r="45">
@@ -930,7 +930,7 @@
         <v>41486</v>
       </c>
       <c r="B45" t="n">
-        <v>-17663.94960248167</v>
+        <v>87917.78826989187</v>
       </c>
     </row>
     <row r="46">
@@ -938,7 +938,7 @@
         <v>41516</v>
       </c>
       <c r="B46" t="n">
-        <v>-26374.01257635368</v>
+        <v>86365.82010477336</v>
       </c>
     </row>
     <row r="47">
@@ -946,7 +946,7 @@
         <v>41547</v>
       </c>
       <c r="B47" t="n">
-        <v>-23195.38413601133</v>
+        <v>77531.28660611631</v>
       </c>
     </row>
     <row r="48">
@@ -954,7 +954,7 @@
         <v>41578</v>
       </c>
       <c r="B48" t="n">
-        <v>-25731.62296715729</v>
+        <v>62305.81325897569</v>
       </c>
     </row>
     <row r="49">
@@ -962,7 +962,7 @@
         <v>41607</v>
       </c>
       <c r="B49" t="n">
-        <v>-19481.62296715732</v>
+        <v>81883.0035543679</v>
       </c>
     </row>
     <row r="50">
@@ -970,7 +970,7 @@
         <v>41639</v>
       </c>
       <c r="B50" t="n">
-        <v>-23885.02869420796</v>
+        <v>73012.605491422</v>
       </c>
     </row>
     <row r="51">
@@ -978,7 +978,7 @@
         <v>41670</v>
       </c>
       <c r="B51" t="n">
-        <v>-29593.98355453196</v>
+        <v>61455.44414460087</v>
       </c>
     </row>
     <row r="52">
@@ -986,7 +986,7 @@
         <v>41698</v>
       </c>
       <c r="B52" t="n">
-        <v>-31653.864856671</v>
+        <v>70534.59649008024</v>
       </c>
     </row>
     <row r="53">
@@ -994,7 +994,7 @@
         <v>41729</v>
       </c>
       <c r="B53" t="n">
-        <v>-33274.89736918586</v>
+        <v>66103.60004503622</v>
       </c>
     </row>
     <row r="54">
@@ -1002,7 +1002,7 @@
         <v>41759</v>
       </c>
       <c r="B54" t="n">
-        <v>-36605.96930870211</v>
+        <v>36617.85560317255</v>
       </c>
     </row>
     <row r="55">
@@ -1010,7 +1010,7 @@
         <v>41789</v>
       </c>
       <c r="B55" t="n">
-        <v>-38227.88302758214</v>
+        <v>12584.68527631812</v>
       </c>
     </row>
     <row r="56">
@@ -1018,7 +1018,7 @@
         <v>41820</v>
       </c>
       <c r="B56" t="n">
-        <v>-41143.2301100375</v>
+        <v>17004.50994454868</v>
       </c>
     </row>
     <row r="57">
@@ -1026,7 +1026,7 @@
         <v>41851</v>
       </c>
       <c r="B57" t="n">
-        <v>-40116.65042524631</v>
+        <v>60667.90319844022</v>
       </c>
     </row>
     <row r="58">
@@ -1034,7 +1034,7 @@
         <v>41880</v>
       </c>
       <c r="B58" t="n">
-        <v>-40563.99693964928</v>
+        <v>-6795.233094922311</v>
       </c>
     </row>
     <row r="59">
@@ -1042,7 +1042,7 @@
         <v>41912</v>
       </c>
       <c r="B59" t="n">
-        <v>-30983.99693964929</v>
+        <v>-162.0667379861952</v>
       </c>
     </row>
     <row r="60">
@@ -1050,7 +1050,7 @@
         <v>41943</v>
       </c>
       <c r="B60" t="n">
-        <v>-23923.75863404629</v>
+        <v>205362.1617477288</v>
       </c>
     </row>
     <row r="61">
@@ -1058,7 +1058,7 @@
         <v>41971</v>
       </c>
       <c r="B61" t="n">
-        <v>-21233.37114229188</v>
+        <v>271346.191036921</v>
       </c>
     </row>
     <row r="62">
@@ -1066,7 +1066,7 @@
         <v>42004</v>
       </c>
       <c r="B62" t="n">
-        <v>-22610.50205813185</v>
+        <v>263086.2455658322</v>
       </c>
     </row>
     <row r="63">
@@ -1074,7 +1074,7 @@
         <v>42034</v>
       </c>
       <c r="B63" t="n">
-        <v>-14290.47865222717</v>
+        <v>209169.1802636238</v>
       </c>
     </row>
     <row r="64">
@@ -1082,7 +1082,7 @@
         <v>42062</v>
       </c>
       <c r="B64" t="n">
-        <v>-15722.27194970018</v>
+        <v>218853.5774315352</v>
       </c>
     </row>
     <row r="65">
@@ -1090,7 +1090,7 @@
         <v>42094</v>
       </c>
       <c r="B65" t="n">
-        <v>-6949.55802018704</v>
+        <v>216808.5114146842</v>
       </c>
     </row>
     <row r="66">
@@ -1098,7 +1098,7 @@
         <v>42124</v>
       </c>
       <c r="B66" t="n">
-        <v>-4106.757660045878</v>
+        <v>188747.8370131759</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>42153</v>
       </c>
       <c r="B67" t="n">
-        <v>-7571.904450167554</v>
+        <v>169128.125891035</v>
       </c>
     </row>
     <row r="68">
@@ -1114,7 +1114,7 @@
         <v>42185</v>
       </c>
       <c r="B68" t="n">
-        <v>-7697.465298375209</v>
+        <v>37752.12603945704</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         <v>42216</v>
       </c>
       <c r="B69" t="n">
-        <v>-17703.49455326954</v>
+        <v>-18963.41324132813</v>
       </c>
     </row>
     <row r="70">
@@ -1130,7 +1130,7 @@
         <v>42247</v>
       </c>
       <c r="B70" t="n">
-        <v>-21235.5749989387</v>
+        <v>30634.53238841919</v>
       </c>
     </row>
     <row r="71">
@@ -1138,7 +1138,7 @@
         <v>42277</v>
       </c>
       <c r="B71" t="n">
-        <v>-21166.82499893869</v>
+        <v>-71460.86833111869</v>
       </c>
     </row>
     <row r="72">
@@ -1146,7 +1146,7 @@
         <v>42307</v>
       </c>
       <c r="B72" t="n">
-        <v>-22071.98885189545</v>
+        <v>-31821.16181662199</v>
       </c>
     </row>
     <row r="73">
@@ -1154,7 +1154,7 @@
         <v>42338</v>
       </c>
       <c r="B73" t="n">
-        <v>-15897.46732536855</v>
+        <v>13035.2394246923</v>
       </c>
     </row>
     <row r="74">
@@ -1162,7 +1162,7 @@
         <v>42369</v>
       </c>
       <c r="B74" t="n">
-        <v>-16941.46657598045</v>
+        <v>-157775.6733791806</v>
       </c>
     </row>
     <row r="75">
@@ -1170,7 +1170,7 @@
         <v>42398</v>
       </c>
       <c r="B75" t="n">
-        <v>-14547.71657598044</v>
+        <v>23050.5719275208</v>
       </c>
     </row>
     <row r="76">
@@ -1178,7 +1178,7 @@
         <v>42429</v>
       </c>
       <c r="B76" t="n">
-        <v>-8092.683668197325</v>
+        <v>-39034.86452515113</v>
       </c>
     </row>
     <row r="77">
@@ -1186,7 +1186,7 @@
         <v>42460</v>
       </c>
       <c r="B77" t="n">
-        <v>-16362.5748145877</v>
+        <v>35434.58520971467</v>
       </c>
     </row>
     <row r="78">
@@ -1194,7 +1194,7 @@
         <v>42489</v>
       </c>
       <c r="B78" t="n">
-        <v>-16617.3682430616</v>
+        <v>30209.67147197706</v>
       </c>
     </row>
     <row r="79">
@@ -1202,7 +1202,7 @@
         <v>42521</v>
       </c>
       <c r="B79" t="n">
-        <v>-16186.11824306161</v>
+        <v>69179.8077528565</v>
       </c>
     </row>
     <row r="80">
@@ -1210,7 +1210,7 @@
         <v>42551</v>
       </c>
       <c r="B80" t="n">
-        <v>-23894.66471387863</v>
+        <v>-64332.68262061083</v>
       </c>
     </row>
     <row r="81">
@@ -1218,7 +1218,7 @@
         <v>42580</v>
       </c>
       <c r="B81" t="n">
-        <v>-26810.76833504068</v>
+        <v>-28587.14278585487</v>
       </c>
     </row>
     <row r="82">
@@ -1226,7 +1226,7 @@
         <v>42613</v>
       </c>
       <c r="B82" t="n">
-        <v>-27869.82290851855</v>
+        <v>-21270.82247706566</v>
       </c>
     </row>
     <row r="83">
@@ -1234,7 +1234,7 @@
         <v>42643</v>
       </c>
       <c r="B83" t="n">
-        <v>-35420.83897486088</v>
+        <v>-120107.896385275</v>
       </c>
     </row>
     <row r="84">
@@ -1242,7 +1242,7 @@
         <v>42674</v>
       </c>
       <c r="B84" t="n">
-        <v>-29113.86931859158</v>
+        <v>-128053.6306363852</v>
       </c>
     </row>
     <row r="85">
@@ -1250,7 +1250,7 @@
         <v>42704</v>
       </c>
       <c r="B85" t="n">
-        <v>-23238.74160197554</v>
+        <v>-169151.6966938155</v>
       </c>
     </row>
     <row r="86">
@@ -1258,7 +1258,7 @@
         <v>42734</v>
       </c>
       <c r="B86" t="n">
-        <v>-34035.72160197562</v>
+        <v>-80812.02493856734</v>
       </c>
     </row>
     <row r="87">
@@ -1266,7 +1266,7 @@
         <v>42766</v>
       </c>
       <c r="B87" t="n">
-        <v>-37807.33560197565</v>
+        <v>-153105.0284615081</v>
       </c>
     </row>
     <row r="88">
@@ -1274,7 +1274,7 @@
         <v>42794</v>
       </c>
       <c r="B88" t="n">
-        <v>-41135.84561272739</v>
+        <v>-65357.56656324277</v>
       </c>
     </row>
     <row r="89">
@@ -1282,7 +1282,7 @@
         <v>42825</v>
       </c>
       <c r="B89" t="n">
-        <v>-43055.1926064217</v>
+        <v>-44406.10075166943</v>
       </c>
     </row>
     <row r="90">
@@ -1290,7 +1290,7 @@
         <v>42853</v>
       </c>
       <c r="B90" t="n">
-        <v>-40176.44481415216</v>
+        <v>-53537.0552670671</v>
       </c>
     </row>
     <row r="91">
@@ -1298,7 +1298,7 @@
         <v>42886</v>
       </c>
       <c r="B91" t="n">
-        <v>-33894.03513855001</v>
+        <v>-54591.52602083894</v>
       </c>
     </row>
     <row r="92">
@@ -1306,7 +1306,7 @@
         <v>42916</v>
       </c>
       <c r="B92" t="n">
-        <v>-33667.73104095592</v>
+        <v>-5324.552602759395</v>
       </c>
     </row>
     <row r="93">
@@ -1314,7 +1314,7 @@
         <v>42947</v>
       </c>
       <c r="B93" t="n">
-        <v>-25242.06259205277</v>
+        <v>36288.07813162501</v>
       </c>
     </row>
     <row r="94">
@@ -1322,7 +1322,7 @@
         <v>42978</v>
       </c>
       <c r="B94" t="n">
-        <v>-31658.85077938351</v>
+        <v>55944.39759308667</v>
       </c>
     </row>
     <row r="95">
@@ -1330,7 +1330,7 @@
         <v>43007</v>
       </c>
       <c r="B95" t="n">
-        <v>-31288.89879338344</v>
+        <v>87035.40078236454</v>
       </c>
     </row>
     <row r="96">
@@ -1338,7 +1338,7 @@
         <v>43039</v>
       </c>
       <c r="B96" t="n">
-        <v>-31874.47235088644</v>
+        <v>161730.9013341193</v>
       </c>
     </row>
     <row r="97">
@@ -1346,7 +1346,7 @@
         <v>43069</v>
       </c>
       <c r="B97" t="n">
-        <v>-31166.91202628633</v>
+        <v>189461.1182396693</v>
       </c>
     </row>
     <row r="98">
@@ -1354,7 +1354,7 @@
         <v>43098</v>
       </c>
       <c r="B98" t="n">
-        <v>-33418.62097740688</v>
+        <v>218315.2807428066</v>
       </c>
     </row>
     <row r="99">
@@ -1362,7 +1362,7 @@
         <v>43131</v>
       </c>
       <c r="B99" t="n">
-        <v>-30139.39942551903</v>
+        <v>402412.2189718204</v>
       </c>
     </row>
     <row r="100">
@@ -1370,7 +1370,7 @@
         <v>43159</v>
       </c>
       <c r="B100" t="n">
-        <v>-35515.51971621115</v>
+        <v>574422.3926860018</v>
       </c>
     </row>
     <row r="101">
@@ -1378,7 +1378,7 @@
         <v>43188</v>
       </c>
       <c r="B101" t="n">
-        <v>-47316.21027151268</v>
+        <v>497074.9334178059</v>
       </c>
     </row>
     <row r="102">
@@ -1386,7 +1386,7 @@
         <v>43220</v>
       </c>
       <c r="B102" t="n">
-        <v>-44942.31353837573</v>
+        <v>365455.5705747973</v>
       </c>
     </row>
     <row r="103">
@@ -1394,7 +1394,7 @@
         <v>43251</v>
       </c>
       <c r="B103" t="n">
-        <v>-43665.15797144377</v>
+        <v>369968.2522735808</v>
       </c>
     </row>
     <row r="104">
@@ -1402,7 +1402,7 @@
         <v>43280</v>
       </c>
       <c r="B104" t="n">
-        <v>-46708.24933264115</v>
+        <v>344486.7379674729</v>
       </c>
     </row>
     <row r="105">
@@ -1410,7 +1410,7 @@
         <v>43312</v>
       </c>
       <c r="B105" t="n">
-        <v>-48332.85675660943</v>
+        <v>378249.8733478262</v>
       </c>
     </row>
     <row r="106">
@@ -1418,7 +1418,7 @@
         <v>43343</v>
       </c>
       <c r="B106" t="n">
-        <v>-49442.75766525077</v>
+        <v>284606.4182126716</v>
       </c>
     </row>
     <row r="107">
@@ -1426,7 +1426,7 @@
         <v>43371</v>
       </c>
       <c r="B107" t="n">
-        <v>-51988.00052336449</v>
+        <v>229389.0562735555</v>
       </c>
     </row>
     <row r="108">
@@ -1434,7 +1434,7 @@
         <v>43404</v>
       </c>
       <c r="B108" t="n">
-        <v>-49749.98948598087</v>
+        <v>319123.3408566929</v>
       </c>
     </row>
     <row r="109">
@@ -1442,7 +1442,7 @@
         <v>43434</v>
       </c>
       <c r="B109" t="n">
-        <v>-58107.87278056006</v>
+        <v>281893.6934944419</v>
       </c>
     </row>
     <row r="110">
@@ -1450,7 +1450,7 @@
         <v>43465</v>
       </c>
       <c r="B110" t="n">
-        <v>-60851.92738479824</v>
+        <v>332991.2202182072</v>
       </c>
     </row>
     <row r="111">
@@ -1458,7 +1458,7 @@
         <v>43496</v>
       </c>
       <c r="B111" t="n">
-        <v>-65675.52421614826</v>
+        <v>373073.1542322416</v>
       </c>
     </row>
     <row r="112">
@@ -1466,7 +1466,7 @@
         <v>43524</v>
       </c>
       <c r="B112" t="n">
-        <v>-65694.07560226021</v>
+        <v>467160.0756146811</v>
       </c>
     </row>
     <row r="113">
@@ -1474,7 +1474,7 @@
         <v>43553</v>
       </c>
       <c r="B113" t="n">
-        <v>-74060.3503674625</v>
+        <v>331187.7051186479</v>
       </c>
     </row>
     <row r="114">
@@ -1482,7 +1482,7 @@
         <v>43585</v>
       </c>
       <c r="B114" t="n">
-        <v>-75946.88583755415</v>
+        <v>329151.667558351</v>
       </c>
     </row>
     <row r="115">
@@ -1490,7 +1490,7 @@
         <v>43616</v>
       </c>
       <c r="B115" t="n">
-        <v>-75489.51553644051</v>
+        <v>337404.6947663273</v>
       </c>
     </row>
     <row r="116">
@@ -1498,7 +1498,7 @@
         <v>43644</v>
       </c>
       <c r="B116" t="n">
-        <v>-78262.48834805652</v>
+        <v>374728.0022304077</v>
       </c>
     </row>
     <row r="117">
@@ -1506,7 +1506,7 @@
         <v>43677</v>
       </c>
       <c r="B117" t="n">
-        <v>-78676.84324380606</v>
+        <v>331700.5683475994</v>
       </c>
     </row>
     <row r="118">
@@ -1514,7 +1514,7 @@
         <v>43707</v>
       </c>
       <c r="B118" t="n">
-        <v>-83334.91302674546</v>
+        <v>366044.9090686011</v>
       </c>
     </row>
     <row r="119">
@@ -1522,7 +1522,7 @@
         <v>43738</v>
       </c>
       <c r="B119" t="n">
-        <v>-88423.48443591126</v>
+        <v>428222.4959609935</v>
       </c>
     </row>
     <row r="120">
@@ -1530,7 +1530,7 @@
         <v>43769</v>
       </c>
       <c r="B120" t="n">
-        <v>-91812.28593069714</v>
+        <v>513841.8198501366</v>
       </c>
     </row>
     <row r="121">
@@ -1538,7 +1538,7 @@
         <v>43798</v>
       </c>
       <c r="B121" t="n">
-        <v>-94578.95032999149</v>
+        <v>534906.7142397407</v>
       </c>
     </row>
     <row r="122">
@@ -1546,7 +1546,7 @@
         <v>43830</v>
       </c>
       <c r="B122" t="n">
-        <v>-98136.5389863209</v>
+        <v>504101.3331916004</v>
       </c>
     </row>
     <row r="123">
@@ -1554,7 +1554,7 @@
         <v>43861</v>
       </c>
       <c r="B123" t="n">
-        <v>-98188.09770440665</v>
+        <v>524509.7277454621</v>
       </c>
     </row>
     <row r="124">
@@ -1562,7 +1562,7 @@
         <v>43889</v>
       </c>
       <c r="B124" t="n">
-        <v>-94062.90291915281</v>
+        <v>782152.1698488484</v>
       </c>
     </row>
     <row r="125">
@@ -1570,7 +1570,7 @@
         <v>43921</v>
       </c>
       <c r="B125" t="n">
-        <v>-86029.81034790076</v>
+        <v>1410589.217575082</v>
       </c>
     </row>
     <row r="126">
@@ -1578,7 +1578,7 @@
         <v>43951</v>
       </c>
       <c r="B126" t="n">
-        <v>-90526.42765370844</v>
+        <v>1469984.207924352</v>
       </c>
     </row>
     <row r="127">
@@ -1586,7 +1586,7 @@
         <v>43980</v>
       </c>
       <c r="B127" t="n">
-        <v>-86973.66304729723</v>
+        <v>1380685.002071057</v>
       </c>
     </row>
     <row r="128">
@@ -1594,7 +1594,7 @@
         <v>44012</v>
       </c>
       <c r="B128" t="n">
-        <v>-83997.36710129204</v>
+        <v>1526231.198884887</v>
       </c>
     </row>
     <row r="129">
@@ -1602,7 +1602,7 @@
         <v>44043</v>
       </c>
       <c r="B129" t="n">
-        <v>-78905.82692287755</v>
+        <v>1512839.118604522</v>
       </c>
     </row>
     <row r="130">
@@ -1610,7 +1610,7 @@
         <v>44074</v>
       </c>
       <c r="B130" t="n">
-        <v>-91213.5950394602</v>
+        <v>1661660.865415869</v>
       </c>
     </row>
     <row r="131">
@@ -1618,7 +1618,7 @@
         <v>44104</v>
       </c>
       <c r="B131" t="n">
-        <v>-93749.95308599228</v>
+        <v>1748525.016849007</v>
       </c>
     </row>
     <row r="132">
@@ -1626,7 +1626,7 @@
         <v>44134</v>
       </c>
       <c r="B132" t="n">
-        <v>-94586.2516410003</v>
+        <v>2004636.992505518</v>
       </c>
     </row>
     <row r="133">
@@ -1634,7 +1634,7 @@
         <v>44165</v>
       </c>
       <c r="B133" t="n">
-        <v>-100767.2963020147</v>
+        <v>2102921.043803246</v>
       </c>
     </row>
     <row r="134">
@@ -1642,7 +1642,7 @@
         <v>44196</v>
       </c>
       <c r="B134" t="n">
-        <v>-99099.91266451991</v>
+        <v>1971231.844246678</v>
       </c>
     </row>
     <row r="135">
@@ -1650,7 +1650,7 @@
         <v>44225</v>
       </c>
       <c r="B135" t="n">
-        <v>-96474.41756117973</v>
+        <v>1935983.664401439</v>
       </c>
     </row>
     <row r="136">
@@ -1658,7 +1658,7 @@
         <v>44253</v>
       </c>
       <c r="B136" t="n">
-        <v>-94472.6788876067</v>
+        <v>1967736.91569317</v>
       </c>
     </row>
     <row r="137">
@@ -1666,7 +1666,7 @@
         <v>44286</v>
       </c>
       <c r="B137" t="n">
-        <v>-89321.43842360677</v>
+        <v>1846082.66678763</v>
       </c>
     </row>
     <row r="138">
@@ -1674,7 +1674,7 @@
         <v>44316</v>
       </c>
       <c r="B138" t="n">
-        <v>-88179.96248842339</v>
+        <v>1957392.052755187</v>
       </c>
     </row>
     <row r="139">
@@ -1682,7 +1682,7 @@
         <v>44344</v>
       </c>
       <c r="B139" t="n">
-        <v>-93635.48756217345</v>
+        <v>1830133.957285953</v>
       </c>
     </row>
     <row r="140">
@@ -1690,7 +1690,7 @@
         <v>44377</v>
       </c>
       <c r="B140" t="n">
-        <v>-90043.42736217346</v>
+        <v>1838277.471732552</v>
       </c>
     </row>
     <row r="141">
@@ -1698,7 +1698,7 @@
         <v>44407</v>
       </c>
       <c r="B141" t="n">
-        <v>-91703.27988178894</v>
+        <v>1764960.385173556</v>
       </c>
     </row>
     <row r="142">
@@ -1706,7 +1706,7 @@
         <v>44439</v>
       </c>
       <c r="B142" t="n">
-        <v>-92752.33445128577</v>
+        <v>1738661.937018181</v>
       </c>
     </row>
     <row r="143">
@@ -1714,7 +1714,7 @@
         <v>44469</v>
       </c>
       <c r="B143" t="n">
-        <v>-91304.61099659899</v>
+        <v>1658527.658971714</v>
       </c>
     </row>
     <row r="144">
@@ -1722,7 +1722,7 @@
         <v>44498</v>
       </c>
       <c r="B144" t="n">
-        <v>-89095.97101186712</v>
+        <v>1689476.783556358</v>
       </c>
     </row>
     <row r="145">
@@ -1730,7 +1730,7 @@
         <v>44530</v>
       </c>
       <c r="B145" t="n">
-        <v>-88044.86659204625</v>
+        <v>1879681.167277523</v>
       </c>
     </row>
     <row r="146">
@@ -1738,7 +1738,7 @@
         <v>44561</v>
       </c>
       <c r="B146" t="n">
-        <v>-90017.50410122718</v>
+        <v>1732692.133435126</v>
       </c>
     </row>
     <row r="147">
@@ -1746,7 +1746,7 @@
         <v>44592</v>
       </c>
       <c r="B147" t="n">
-        <v>-88759.03083635223</v>
+        <v>1901257.473961125</v>
       </c>
     </row>
     <row r="148">
@@ -1754,7 +1754,7 @@
         <v>44620</v>
       </c>
       <c r="B148" t="n">
-        <v>-87781.7953820813</v>
+        <v>1839363.776087784</v>
       </c>
     </row>
     <row r="149">
@@ -1762,7 +1762,215 @@
         <v>44651</v>
       </c>
       <c r="B149" t="n">
-        <v>-81727.37590727181</v>
+        <v>1862713.516284014</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1917420.882482098</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1813317.824027376</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1630324.338740156</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1577403.212152167</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1904076.292152166</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2046729.481840446</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1931218.246155266</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1820043.371985838</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1588520.190038701</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1464211.214158792</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1530364.336390208</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1422952.946631206</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1427386.084777759</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1405793.642132493</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1386757.574636371</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1350039.544236372</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1323969.09543173</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1420755.115871794</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1469302.181263137</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1717599.622956502</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1827753.622956502</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1720833.310100156</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1713046.137624936</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1632228.900200682</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1584122.810797537</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1668022.810797537</v>
       </c>
     </row>
   </sheetData>

--- a/TradingSimula_18-2022/TF-System#4_1R.xlsx
+++ b/TradingSimula_18-2022/TF-System#4_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$174</f>
+              <f>'EquityCurve'!$A$3:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$174</f>
+              <f>'EquityCurve'!$B$2:$B$296</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B175"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,1386 +591,2362 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40207</v>
+        <v>36556</v>
       </c>
       <c r="B3" t="n">
-        <v>50957.9244566532</v>
+        <v>-76062.74195034544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40235</v>
+        <v>36585</v>
       </c>
       <c r="B4" t="n">
-        <v>19941.55894593537</v>
+        <v>25301.18281041684</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40268</v>
+        <v>36616</v>
       </c>
       <c r="B5" t="n">
-        <v>5244.452389800432</v>
+        <v>-251622.8251103355</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40298</v>
+        <v>36644</v>
       </c>
       <c r="B6" t="n">
-        <v>-18153.11875337</v>
+        <v>-303939.3442389494</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40326</v>
+        <v>36677</v>
       </c>
       <c r="B7" t="n">
-        <v>-36920.1099727234</v>
+        <v>-225654.9706403887</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40359</v>
+        <v>36707</v>
       </c>
       <c r="B8" t="n">
-        <v>-42238.02168404504</v>
+        <v>-419968.0818409614</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40389</v>
+        <v>36738</v>
       </c>
       <c r="B9" t="n">
-        <v>-49508.17474882429</v>
+        <v>-412725.0691384316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40421</v>
+        <v>36769</v>
       </c>
       <c r="B10" t="n">
-        <v>-38575.15445362211</v>
+        <v>-212668.4714071448</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40451</v>
+        <v>36798</v>
       </c>
       <c r="B11" t="n">
-        <v>-11250.38843450259</v>
+        <v>-269969.6488862335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40480</v>
+        <v>36830</v>
       </c>
       <c r="B12" t="n">
-        <v>13904.15872417822</v>
+        <v>-84605.38319016606</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B13" t="n">
-        <v>18103.50045370908</v>
+        <v>-251273.4678917219</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40543</v>
+        <v>36889</v>
       </c>
       <c r="B14" t="n">
-        <v>38008.23581409674</v>
+        <v>-63064.67493297916</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B15" t="n">
-        <v>-12558.05008761027</v>
+        <v>-47004.54025765712</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B16" t="n">
-        <v>-12931.31493628013</v>
+        <v>216447.0840762598</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40633</v>
+        <v>36980</v>
       </c>
       <c r="B17" t="n">
-        <v>-69177.43048962795</v>
+        <v>341438.2688041892</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40662</v>
+        <v>37011</v>
       </c>
       <c r="B18" t="n">
-        <v>-3229.342021645954</v>
+        <v>164774.3600209274</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B19" t="n">
-        <v>62388.0050766378</v>
+        <v>27740.63618355771</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40724</v>
+        <v>37071</v>
       </c>
       <c r="B20" t="n">
-        <v>36134.25707469812</v>
+        <v>16480.30931186562</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40753</v>
+        <v>37103</v>
       </c>
       <c r="B21" t="n">
-        <v>78295.38496139138</v>
+        <v>6677.198870640896</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B22" t="n">
-        <v>77415.17373539835</v>
+        <v>-46407.68291016834</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="B23" t="n">
-        <v>157427.3479195804</v>
+        <v>145920.8858813447</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B24" t="n">
-        <v>143341.5828941808</v>
+        <v>321359.7985101276</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B25" t="n">
-        <v>118100.0978298581</v>
+        <v>571789.2618067967</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40907</v>
+        <v>37256</v>
       </c>
       <c r="B26" t="n">
-        <v>121626.263382472</v>
+        <v>757918.0096893975</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B27" t="n">
-        <v>139026.919585032</v>
+        <v>870538.839263962</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B28" t="n">
-        <v>115464.7844046423</v>
+        <v>734332.1242108783</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40998</v>
+        <v>37343</v>
       </c>
       <c r="B29" t="n">
-        <v>75152.43998536274</v>
+        <v>729636.0506369098</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B30" t="n">
-        <v>55562.80680871361</v>
+        <v>600198.0535680242</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B31" t="n">
-        <v>113603.5261140208</v>
+        <v>674732.8634451522</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41089</v>
+        <v>37435</v>
       </c>
       <c r="B32" t="n">
-        <v>101602.6038843853</v>
+        <v>644759.6578872794</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B33" t="n">
-        <v>67633.30506200336</v>
+        <v>1144566.899642318</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41152</v>
+        <v>37498</v>
       </c>
       <c r="B34" t="n">
-        <v>102869.6224450133</v>
+        <v>1151637.050886333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41180</v>
+        <v>37529</v>
       </c>
       <c r="B35" t="n">
-        <v>109523.4611486616</v>
+        <v>1138491.134516332</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B36" t="n">
-        <v>76613.35295693368</v>
+        <v>1468126.068108846</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41243</v>
+        <v>37589</v>
       </c>
       <c r="B37" t="n">
-        <v>51706.6640970142</v>
+        <v>1598580.348741526</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B38" t="n">
-        <v>76562.77902321242</v>
+        <v>1596669.276240434</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B39" t="n">
-        <v>46562.48337611493</v>
+        <v>1612548.338395308</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B40" t="n">
-        <v>86910.87060520523</v>
+        <v>1425169.076214747</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41362</v>
+        <v>37711</v>
       </c>
       <c r="B41" t="n">
-        <v>73106.97654476596</v>
+        <v>1383461.574371247</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B42" t="n">
-        <v>92167.23261238931</v>
+        <v>1285048.553403631</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41425</v>
+        <v>37771</v>
       </c>
       <c r="B43" t="n">
-        <v>82715.04101069461</v>
+        <v>1646836.187493557</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41453</v>
+        <v>37802</v>
       </c>
       <c r="B44" t="n">
-        <v>89465.25033246793</v>
+        <v>1451631.268139694</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B45" t="n">
-        <v>87917.78826989187</v>
+        <v>1448895.216918315</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41516</v>
+        <v>37862</v>
       </c>
       <c r="B46" t="n">
-        <v>86365.82010477336</v>
+        <v>1096581.815817816</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B47" t="n">
-        <v>77531.28660611631</v>
+        <v>874841.2082377768</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B48" t="n">
-        <v>62305.81325897569</v>
+        <v>1161171.092616695</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41607</v>
+        <v>37953</v>
       </c>
       <c r="B49" t="n">
-        <v>81883.0035543679</v>
+        <v>1152705.457379762</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B50" t="n">
-        <v>73012.605491422</v>
+        <v>1670122.661246385</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41670</v>
+        <v>38016</v>
       </c>
       <c r="B51" t="n">
-        <v>61455.44414460087</v>
+        <v>1631258.211565941</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41698</v>
+        <v>38044</v>
       </c>
       <c r="B52" t="n">
-        <v>70534.59649008024</v>
+        <v>1415342.907594678</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B53" t="n">
-        <v>66103.60004503622</v>
+        <v>1519042.899481351</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B54" t="n">
-        <v>36617.85560317255</v>
+        <v>2196651.232734074</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>41789</v>
+        <v>38135</v>
       </c>
       <c r="B55" t="n">
-        <v>12584.68527631812</v>
+        <v>2706912.968793209</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B56" t="n">
-        <v>17004.50994454868</v>
+        <v>2377776.813312616</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>41851</v>
+        <v>38198</v>
       </c>
       <c r="B57" t="n">
-        <v>60667.90319844022</v>
+        <v>1831809.428696562</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>41880</v>
+        <v>38230</v>
       </c>
       <c r="B58" t="n">
-        <v>-6795.233094922311</v>
+        <v>1131204.620861023</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B59" t="n">
-        <v>-162.0667379861952</v>
+        <v>1868919.208259434</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41943</v>
+        <v>38289</v>
       </c>
       <c r="B60" t="n">
-        <v>205362.1617477288</v>
+        <v>1626966.020537622</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>41971</v>
+        <v>38321</v>
       </c>
       <c r="B61" t="n">
-        <v>271346.191036921</v>
+        <v>1664737.881303898</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B62" t="n">
-        <v>263086.2455658322</v>
+        <v>1776847.908177849</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42034</v>
+        <v>38383</v>
       </c>
       <c r="B63" t="n">
-        <v>209169.1802636238</v>
+        <v>1496004.963468031</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42062</v>
+        <v>38411</v>
       </c>
       <c r="B64" t="n">
-        <v>218853.5774315352</v>
+        <v>1674654.805990274</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B65" t="n">
-        <v>216808.5114146842</v>
+        <v>984749.1475983181</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42124</v>
+        <v>38471</v>
       </c>
       <c r="B66" t="n">
-        <v>188747.8370131759</v>
+        <v>792832.8787587247</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42153</v>
+        <v>38503</v>
       </c>
       <c r="B67" t="n">
-        <v>169128.125891035</v>
+        <v>1201566.883214512</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B68" t="n">
-        <v>37752.12603945704</v>
+        <v>1343501.274139598</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="B69" t="n">
-        <v>-18963.41324132813</v>
+        <v>1331939.501326744</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B70" t="n">
-        <v>30634.53238841919</v>
+        <v>1337753.662172244</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B71" t="n">
-        <v>-71460.86833111869</v>
+        <v>1386919.036227475</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42307</v>
+        <v>38656</v>
       </c>
       <c r="B72" t="n">
-        <v>-31821.16181662199</v>
+        <v>742362.814065669</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B73" t="n">
-        <v>13035.2394246923</v>
+        <v>1043576.570045986</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42369</v>
+        <v>38716</v>
       </c>
       <c r="B74" t="n">
-        <v>-157775.6733791806</v>
+        <v>929813.6802660855</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42398</v>
+        <v>38748</v>
       </c>
       <c r="B75" t="n">
-        <v>23050.5719275208</v>
+        <v>1048921.997281461</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B76" t="n">
-        <v>-39034.86452515113</v>
+        <v>990798.9311905254</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B77" t="n">
-        <v>35434.58520971467</v>
+        <v>1606259.675896032</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="B78" t="n">
-        <v>30209.67147197706</v>
+        <v>3854093.520733255</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B79" t="n">
-        <v>69179.8077528565</v>
+        <v>3743545.833006144</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B80" t="n">
-        <v>-64332.68262061083</v>
+        <v>6286091.01698593</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42580</v>
+        <v>38929</v>
       </c>
       <c r="B81" t="n">
-        <v>-28587.14278585487</v>
+        <v>6096456.823092088</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B82" t="n">
-        <v>-21270.82247706566</v>
+        <v>4900746.794095607</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="B83" t="n">
-        <v>-120107.896385275</v>
+        <v>3453083.936017</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B84" t="n">
-        <v>-128053.6306363852</v>
+        <v>1525485.576911555</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B85" t="n">
-        <v>-169151.6966938155</v>
+        <v>2028145.685842077</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42734</v>
+        <v>39080</v>
       </c>
       <c r="B86" t="n">
-        <v>-80812.02493856734</v>
+        <v>2312606.565918822</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B87" t="n">
-        <v>-153105.0284615081</v>
+        <v>2387176.846562765</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B88" t="n">
-        <v>-65357.56656324277</v>
+        <v>2818294.896217006</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="B89" t="n">
-        <v>-44406.10075166943</v>
+        <v>3005318.236243456</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42853</v>
+        <v>39202</v>
       </c>
       <c r="B90" t="n">
-        <v>-53537.0552670671</v>
+        <v>4166957.466324392</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B91" t="n">
-        <v>-54591.52602083894</v>
+        <v>4663299.365662361</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="B92" t="n">
-        <v>-5324.552602759395</v>
+        <v>4141168.14059028</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B93" t="n">
-        <v>36288.07813162501</v>
+        <v>3556180.483421569</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B94" t="n">
-        <v>55944.39759308667</v>
+        <v>3435759.579633946</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="B95" t="n">
-        <v>87035.40078236454</v>
+        <v>4882191.249399601</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B96" t="n">
-        <v>161730.9013341193</v>
+        <v>4815392.066284087</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B97" t="n">
-        <v>189461.1182396693</v>
+        <v>5566575.648902004</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43098</v>
+        <v>39447</v>
       </c>
       <c r="B98" t="n">
-        <v>218315.2807428066</v>
+        <v>3710267.130375781</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B99" t="n">
-        <v>402412.2189718204</v>
+        <v>4530859.704622187</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B100" t="n">
-        <v>574422.3926860018</v>
+        <v>6292932.191968614</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43188</v>
+        <v>39538</v>
       </c>
       <c r="B101" t="n">
-        <v>497074.9334178059</v>
+        <v>5010694.95488919</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B102" t="n">
-        <v>365455.5705747973</v>
+        <v>3713144.280661978</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43251</v>
+        <v>39598</v>
       </c>
       <c r="B103" t="n">
-        <v>369968.2522735808</v>
+        <v>2720039.07608363</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43280</v>
+        <v>39629</v>
       </c>
       <c r="B104" t="n">
-        <v>344486.7379674729</v>
+        <v>1973397.068109034</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B105" t="n">
-        <v>378249.8733478262</v>
+        <v>2890293.749985756</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43343</v>
+        <v>39689</v>
       </c>
       <c r="B106" t="n">
-        <v>284606.4182126716</v>
+        <v>4573199.369809211</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43371</v>
+        <v>39721</v>
       </c>
       <c r="B107" t="n">
-        <v>229389.0562735555</v>
+        <v>3729445.824570167</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B108" t="n">
-        <v>319123.3408566929</v>
+        <v>7113760.99642979</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43434</v>
+        <v>39780</v>
       </c>
       <c r="B109" t="n">
-        <v>281893.6934944419</v>
+        <v>6204268.737261265</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B110" t="n">
-        <v>332991.2202182072</v>
+        <v>6505619.694466803</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43496</v>
+        <v>39843</v>
       </c>
       <c r="B111" t="n">
-        <v>373073.1542322416</v>
+        <v>5723963.584556433</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43524</v>
+        <v>39871</v>
       </c>
       <c r="B112" t="n">
-        <v>467160.0756146811</v>
+        <v>6629836.286100208</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43553</v>
+        <v>39903</v>
       </c>
       <c r="B113" t="n">
-        <v>331187.7051186479</v>
+        <v>6281402.957558527</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B114" t="n">
-        <v>329151.667558351</v>
+        <v>5975979.851346563</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43616</v>
+        <v>39962</v>
       </c>
       <c r="B115" t="n">
-        <v>337404.6947663273</v>
+        <v>6059749.074673177</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43644</v>
+        <v>39994</v>
       </c>
       <c r="B116" t="n">
-        <v>374728.0022304077</v>
+        <v>6685288.651211098</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B117" t="n">
-        <v>331700.5683475994</v>
+        <v>6921270.391163281</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43707</v>
+        <v>40056</v>
       </c>
       <c r="B118" t="n">
-        <v>366044.9090686011</v>
+        <v>5633156.270270343</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B119" t="n">
-        <v>428222.4959609935</v>
+        <v>6504423.484885692</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43769</v>
+        <v>40116</v>
       </c>
       <c r="B120" t="n">
-        <v>513841.8198501366</v>
+        <v>7537093.46505119</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43798</v>
+        <v>40147</v>
       </c>
       <c r="B121" t="n">
-        <v>534906.7142397407</v>
+        <v>6733362.408929219</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B122" t="n">
-        <v>504101.3331916004</v>
+        <v>6196225.212601088</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43861</v>
+        <v>40207</v>
       </c>
       <c r="B123" t="n">
-        <v>524509.7277454621</v>
+        <v>7754432.841376111</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43889</v>
+        <v>40235</v>
       </c>
       <c r="B124" t="n">
-        <v>782152.1698488484</v>
+        <v>9161416.957218491</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B125" t="n">
-        <v>1410589.217575082</v>
+        <v>9705547.086893545</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B126" t="n">
-        <v>1469984.207924352</v>
+        <v>10415069.53540682</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43980</v>
+        <v>40326</v>
       </c>
       <c r="B127" t="n">
-        <v>1380685.002071057</v>
+        <v>7933784.893133882</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B128" t="n">
-        <v>1526231.198884887</v>
+        <v>6804820.208529933</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="B129" t="n">
-        <v>1512839.118604522</v>
+        <v>6364004.017871608</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B130" t="n">
-        <v>1661660.865415869</v>
+        <v>5403151.912693556</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B131" t="n">
-        <v>1748525.016849007</v>
+        <v>7340544.851745339</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="B132" t="n">
-        <v>2004636.992505518</v>
+        <v>7734651.649409588</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B133" t="n">
-        <v>2102921.043803246</v>
+        <v>7024890.873694753</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B134" t="n">
-        <v>1971231.844246678</v>
+        <v>7714688.270249963</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44225</v>
+        <v>40574</v>
       </c>
       <c r="B135" t="n">
-        <v>1935983.664401439</v>
+        <v>6144317.372809591</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44253</v>
+        <v>40602</v>
       </c>
       <c r="B136" t="n">
-        <v>1967736.91569317</v>
+        <v>7186652.752030363</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44286</v>
+        <v>40633</v>
       </c>
       <c r="B137" t="n">
-        <v>1846082.66678763</v>
+        <v>5442250.29414348</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44316</v>
+        <v>40662</v>
       </c>
       <c r="B138" t="n">
-        <v>1957392.052755187</v>
+        <v>9944388.598113647</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44344</v>
+        <v>40694</v>
       </c>
       <c r="B139" t="n">
-        <v>1830133.957285953</v>
+        <v>15321489.53692946</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44377</v>
+        <v>40724</v>
       </c>
       <c r="B140" t="n">
-        <v>1838277.471732552</v>
+        <v>13351955.79824957</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44407</v>
+        <v>40753</v>
       </c>
       <c r="B141" t="n">
-        <v>1764960.385173556</v>
+        <v>14506564.47658332</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44439</v>
+        <v>40786</v>
       </c>
       <c r="B142" t="n">
-        <v>1738661.937018181</v>
+        <v>11363519.87810183</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44469</v>
+        <v>40816</v>
       </c>
       <c r="B143" t="n">
-        <v>1658527.658971714</v>
+        <v>18830636.20287677</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44498</v>
+        <v>40847</v>
       </c>
       <c r="B144" t="n">
-        <v>1689476.783556358</v>
+        <v>18432276.62803191</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44530</v>
+        <v>40877</v>
       </c>
       <c r="B145" t="n">
-        <v>1879681.167277523</v>
+        <v>18329069.22687195</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44561</v>
+        <v>40907</v>
       </c>
       <c r="B146" t="n">
-        <v>1732692.133435126</v>
+        <v>18014648.40579673</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44592</v>
+        <v>40939</v>
       </c>
       <c r="B147" t="n">
-        <v>1901257.473961125</v>
+        <v>19906075.11094387</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44620</v>
+        <v>40968</v>
       </c>
       <c r="B148" t="n">
-        <v>1839363.776087784</v>
+        <v>17449302.5696652</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44651</v>
+        <v>40998</v>
       </c>
       <c r="B149" t="n">
-        <v>1862713.516284014</v>
+        <v>17053991.04371632</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44680</v>
+        <v>41029</v>
       </c>
       <c r="B150" t="n">
-        <v>1917420.882482098</v>
+        <v>16220107.54834865</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44712</v>
+        <v>41060</v>
       </c>
       <c r="B151" t="n">
-        <v>1813317.824027376</v>
+        <v>17769965.27513377</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44742</v>
+        <v>41089</v>
       </c>
       <c r="B152" t="n">
-        <v>1630324.338740156</v>
+        <v>17887418.69313321</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44771</v>
+        <v>41121</v>
       </c>
       <c r="B153" t="n">
-        <v>1577403.212152167</v>
+        <v>15291854.12597441</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44804</v>
+        <v>41152</v>
       </c>
       <c r="B154" t="n">
-        <v>1904076.292152166</v>
+        <v>17092676.52215486</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44834</v>
+        <v>41180</v>
       </c>
       <c r="B155" t="n">
-        <v>2046729.481840446</v>
+        <v>18911144.3449893</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44865</v>
+        <v>41213</v>
       </c>
       <c r="B156" t="n">
-        <v>1931218.246155266</v>
+        <v>18622307.17184966</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44895</v>
+        <v>41243</v>
       </c>
       <c r="B157" t="n">
-        <v>1820043.371985838</v>
+        <v>18082759.32637292</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44925</v>
+        <v>41274</v>
       </c>
       <c r="B158" t="n">
-        <v>1588520.190038701</v>
+        <v>19667080.88638765</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44957</v>
+        <v>41305</v>
       </c>
       <c r="B159" t="n">
-        <v>1464211.214158792</v>
+        <v>17873786.00584184</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44985</v>
+        <v>41333</v>
       </c>
       <c r="B160" t="n">
-        <v>1530364.336390208</v>
+        <v>19845337.7689188</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45016</v>
+        <v>41361</v>
       </c>
       <c r="B161" t="n">
-        <v>1422952.946631206</v>
+        <v>19584417.326038</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45044</v>
+        <v>41394</v>
       </c>
       <c r="B162" t="n">
-        <v>1427386.084777759</v>
+        <v>22308709.53895218</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45077</v>
+        <v>41425</v>
       </c>
       <c r="B163" t="n">
-        <v>1405793.642132493</v>
+        <v>21759724.24780979</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45107</v>
+        <v>41453</v>
       </c>
       <c r="B164" t="n">
-        <v>1386757.574636371</v>
+        <v>21826608.44393791</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45138</v>
+        <v>41486</v>
       </c>
       <c r="B165" t="n">
-        <v>1350039.544236372</v>
+        <v>21631277.3566868</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45169</v>
+        <v>41516</v>
       </c>
       <c r="B166" t="n">
-        <v>1323969.09543173</v>
+        <v>22907673.58329093</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45198</v>
+        <v>41547</v>
       </c>
       <c r="B167" t="n">
-        <v>1420755.115871794</v>
+        <v>22134904.59375668</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45230</v>
+        <v>41578</v>
       </c>
       <c r="B168" t="n">
-        <v>1469302.181263137</v>
+        <v>21259582.27896053</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45260</v>
+        <v>41607</v>
       </c>
       <c r="B169" t="n">
-        <v>1717599.622956502</v>
+        <v>22341493.66323169</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45289</v>
+        <v>41639</v>
       </c>
       <c r="B170" t="n">
-        <v>1827753.622956502</v>
+        <v>22815630.39600457</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45322</v>
+        <v>41670</v>
       </c>
       <c r="B171" t="n">
-        <v>1720833.310100156</v>
+        <v>22678242.7858363</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45351</v>
+        <v>41698</v>
       </c>
       <c r="B172" t="n">
-        <v>1713046.137624936</v>
+        <v>22961209.18341675</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45379</v>
+        <v>41729</v>
       </c>
       <c r="B173" t="n">
-        <v>1632228.900200682</v>
+        <v>23038392.24806991</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45412</v>
+        <v>41759</v>
       </c>
       <c r="B174" t="n">
-        <v>1584122.810797537</v>
+        <v>21835204.37553856</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45415</v>
+        <v>41789</v>
       </c>
       <c r="B175" t="n">
-        <v>1668022.810797537</v>
+        <v>21084914.66459792</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="B176" t="n">
+        <v>22107225.89472206</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>41851</v>
+      </c>
+      <c r="B177" t="n">
+        <v>21856145.48563307</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>41880</v>
+      </c>
+      <c r="B178" t="n">
+        <v>21833073.96914998</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B179" t="n">
+        <v>22469743.86697543</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="B180" t="n">
+        <v>22188749.37188296</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B181" t="n">
+        <v>22755170.9542755</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B182" t="n">
+        <v>21101136.50120553</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>42034</v>
+      </c>
+      <c r="B183" t="n">
+        <v>21492106.00085074</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>42062</v>
+      </c>
+      <c r="B184" t="n">
+        <v>22204198.67702033</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>42094</v>
+      </c>
+      <c r="B185" t="n">
+        <v>22859089.82646575</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>42124</v>
+      </c>
+      <c r="B186" t="n">
+        <v>22958558.66585757</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>42153</v>
+      </c>
+      <c r="B187" t="n">
+        <v>22912084.94240367</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>42185</v>
+      </c>
+      <c r="B188" t="n">
+        <v>22668738.59876935</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>42216</v>
+      </c>
+      <c r="B189" t="n">
+        <v>22483727.54968015</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="B190" t="n">
+        <v>20964855.18487436</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>42277</v>
+      </c>
+      <c r="B191" t="n">
+        <v>20753998.96031627</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>42307</v>
+      </c>
+      <c r="B192" t="n">
+        <v>20636560.55684762</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="B193" t="n">
+        <v>21335979.76305461</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B194" t="n">
+        <v>19866680.78494643</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>42398</v>
+      </c>
+      <c r="B195" t="n">
+        <v>19966503.29894366</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>42429</v>
+      </c>
+      <c r="B196" t="n">
+        <v>20344618.09276489</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>42460</v>
+      </c>
+      <c r="B197" t="n">
+        <v>20243786.70030674</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>42489</v>
+      </c>
+      <c r="B198" t="n">
+        <v>21706845.64186971</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B199" t="n">
+        <v>22352713.92268436</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>42551</v>
+      </c>
+      <c r="B200" t="n">
+        <v>22330212.48826104</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>42580</v>
+      </c>
+      <c r="B201" t="n">
+        <v>22327425.88367828</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B202" t="n">
+        <v>22157611.81914129</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B203" t="n">
+        <v>20788108.56413524</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="B204" t="n">
+        <v>21365864.90700768</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>42704</v>
+      </c>
+      <c r="B205" t="n">
+        <v>21938713.58621195</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>42734</v>
+      </c>
+      <c r="B206" t="n">
+        <v>21717506.17666004</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>42766</v>
+      </c>
+      <c r="B207" t="n">
+        <v>20757734.22918279</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>42794</v>
+      </c>
+      <c r="B208" t="n">
+        <v>20626321.32087095</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>42825</v>
+      </c>
+      <c r="B209" t="n">
+        <v>20599150.80151156</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>42853</v>
+      </c>
+      <c r="B210" t="n">
+        <v>20112769.57134883</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B211" t="n">
+        <v>20476126.66303297</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="B212" t="n">
+        <v>19827865.90298342</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="B213" t="n">
+        <v>20611869.31092405</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>42978</v>
+      </c>
+      <c r="B214" t="n">
+        <v>20788575.2719597</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>43007</v>
+      </c>
+      <c r="B215" t="n">
+        <v>21795085.03994996</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>43039</v>
+      </c>
+      <c r="B216" t="n">
+        <v>22519307.31204389</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>43069</v>
+      </c>
+      <c r="B217" t="n">
+        <v>22200547.88187329</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>43098</v>
+      </c>
+      <c r="B218" t="n">
+        <v>23263004.5911193</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B219" t="n">
+        <v>22082461.39422187</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B220" t="n">
+        <v>21300590.60798097</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43188</v>
+      </c>
+      <c r="B221" t="n">
+        <v>20455371.83718587</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>20176015.63796443</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B223" t="n">
+        <v>19537250.0677947</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B224" t="n">
+        <v>19763009.24366504</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>20248900.19640695</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43343</v>
+      </c>
+      <c r="B226" t="n">
+        <v>20062569.2960193</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43371</v>
+      </c>
+      <c r="B227" t="n">
+        <v>20098353.33887831</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B228" t="n">
+        <v>19356738.75000095</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43434</v>
+      </c>
+      <c r="B229" t="n">
+        <v>17271448.82456941</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B230" t="n">
+        <v>17692382.43959269</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B231" t="n">
+        <v>18207377.76769509</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B232" t="n">
+        <v>17874000.78507749</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B233" t="n">
+        <v>16993666.43981448</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B234" t="n">
+        <v>16831334.27854104</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B235" t="n">
+        <v>16731485.41762994</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43644</v>
+      </c>
+      <c r="B236" t="n">
+        <v>16985596.47588259</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B237" t="n">
+        <v>16748973.9316504</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B238" t="n">
+        <v>17066296.79088029</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B239" t="n">
+        <v>16539328.13615736</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B240" t="n">
+        <v>16406006.98363921</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B241" t="n">
+        <v>15835853.87981383</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B242" t="n">
+        <v>15820442.77633828</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B243" t="n">
+        <v>16370899.73931239</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="B244" t="n">
+        <v>16794087.44643183</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B245" t="n">
+        <v>19038413.18084311</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B246" t="n">
+        <v>19994764.51087796</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B247" t="n">
+        <v>20141483.77431171</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B248" t="n">
+        <v>19750937.83626408</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B249" t="n">
+        <v>22231702.28295707</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B250" t="n">
+        <v>24133588.14501973</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B251" t="n">
+        <v>23898561.17093036</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B252" t="n">
+        <v>23163651.92174243</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B253" t="n">
+        <v>23190557.24538755</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B254" t="n">
+        <v>22502419.24629785</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B255" t="n">
+        <v>22929632.1026597</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B256" t="n">
+        <v>24110066.04650786</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B257" t="n">
+        <v>24332116.88168585</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B258" t="n">
+        <v>25679550.43654523</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B259" t="n">
+        <v>25704137.43720306</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B260" t="n">
+        <v>25349214.75152163</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B261" t="n">
+        <v>23958387.92417828</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B262" t="n">
+        <v>23619384.72617736</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B263" t="n">
+        <v>23115203.6918573</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B264" t="n">
+        <v>24661631.01195671</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B265" t="n">
+        <v>23849454.11294032</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B266" t="n">
+        <v>24113609.90403995</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B267" t="n">
+        <v>24436257.41066507</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B268" t="n">
+        <v>23527391.32289781</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B269" t="n">
+        <v>22926854.05466585</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B270" t="n">
+        <v>24341506.78527503</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B271" t="n">
+        <v>25556343.6638013</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B272" t="n">
+        <v>26839561.74311082</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B273" t="n">
+        <v>28728103.56321921</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B274" t="n">
+        <v>28491850.83921517</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B275" t="n">
+        <v>27640697.18058571</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B276" t="n">
+        <v>25517858.74849273</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B277" t="n">
+        <v>25515385.38976389</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B278" t="n">
+        <v>24111130.68212098</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B279" t="n">
+        <v>21531814.61482333</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B280" t="n">
+        <v>21524738.87757343</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B281" t="n">
+        <v>22475162.50926167</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B282" t="n">
+        <v>22405033.73204397</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B283" t="n">
+        <v>23052600.656044</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B284" t="n">
+        <v>23962165.36442597</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B285" t="n">
+        <v>24025728.10693545</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B286" t="n">
+        <v>25545185.62704721</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B287" t="n">
+        <v>24621024.34941198</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B288" t="n">
+        <v>24628745.36900718</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B289" t="n">
+        <v>26058980.51873663</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>25466938.90471974</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="n">
+        <v>25652503.99889371</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B292" t="n">
+        <v>24038429.69363027</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B293" t="n">
+        <v>24902189.36815001</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B294" t="n">
+        <v>27626672.37386631</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B295" t="n">
+        <v>29533106.67800684</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B296" t="n">
+        <v>28222807.5618303</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B297" t="n">
+        <v>27629573.7110668</v>
       </c>
     </row>
   </sheetData>
